--- a/data/province_sentiment-correlation.xlsx
+++ b/data/province_sentiment-correlation.xlsx
@@ -491,25 +491,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3506408711283905</v>
+        <v>0.8351128293618785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6641012505247945</v>
+        <v>0.3882154139868831</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2480337336457483</v>
+        <v>0.6843903710485125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3003124228601098</v>
+        <v>0.158033152664118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7108331149159646</v>
+        <v>0.7611841799386381</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3512918072084559</v>
+        <v>0.4264217463555484</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5476465324092574</v>
+        <v>0.4972657781835089</v>
       </c>
     </row>
     <row r="3">
@@ -519,28 +519,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3506408711283905</v>
+        <v>0.8351128293618785</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2641764064639945</v>
+        <v>0.4873968141252499</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2819447083916468</v>
+        <v>0.7489788003165152</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1191972812100965</v>
+        <v>0.1376127725568089</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3853045252835483</v>
+        <v>0.7623414259136896</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1059994240287356</v>
+        <v>0.5301419553498137</v>
       </c>
       <c r="I3" t="n">
-        <v>0.213052443456517</v>
+        <v>0.5459102691204253</v>
       </c>
     </row>
     <row r="4">
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6641012505247945</v>
+        <v>0.3882154139868831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2641764064639945</v>
+        <v>0.4873968141252499</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1057821788221717</v>
+        <v>0.4554794462615966</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2073441614648852</v>
+        <v>0.1329077224062654</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6655222208787677</v>
+        <v>0.4113521252073592</v>
       </c>
       <c r="H4" t="n">
-        <v>0.460161880141598</v>
+        <v>0.1649173509847513</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5120560674747343</v>
+        <v>0.436051676731523</v>
       </c>
     </row>
     <row r="5">
@@ -581,28 +581,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2480337336457483</v>
+        <v>0.6843903710485125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2819447083916468</v>
+        <v>0.7489788003165152</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1057821788221717</v>
+        <v>0.4554794462615966</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2305725624445803</v>
+        <v>0.1397534832539068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1823046069656774</v>
+        <v>0.7068566014693257</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05668299221799993</v>
+        <v>0.5473397560293946</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2510831159896784</v>
+        <v>0.4929171340535298</v>
       </c>
     </row>
     <row r="6">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3003124228601098</v>
+        <v>0.158033152664118</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1191972812100965</v>
+        <v>0.1376127725568089</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2073441614648852</v>
+        <v>0.1329077224062654</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2305725624445803</v>
+        <v>0.1397534832539068</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2743401687494481</v>
+        <v>0.1306904014268146</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4079040958068175</v>
+        <v>0.1603463385266381</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3093131154030563</v>
+        <v>0.04740734286961638</v>
       </c>
     </row>
     <row r="7">
@@ -643,28 +643,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7108331149159646</v>
+        <v>0.7611841799386381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3853045252835483</v>
+        <v>0.7623414259136896</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6655222208787677</v>
+        <v>0.4113521252073592</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1823046069656774</v>
+        <v>0.7068566014693257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2743401687494481</v>
+        <v>0.1306904014268146</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3844439794847474</v>
+        <v>0.715033411982409</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5221896554689776</v>
+        <v>0.3452469636641346</v>
       </c>
     </row>
     <row r="8">
@@ -674,28 +674,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3512918072084559</v>
+        <v>0.4264217463555484</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1059994240287356</v>
+        <v>0.5301419553498137</v>
       </c>
       <c r="D8" t="n">
-        <v>0.460161880141598</v>
+        <v>0.1649173509847513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05668299221799993</v>
+        <v>0.5473397560293946</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4079040958068175</v>
+        <v>0.1603463385266381</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3844439794847474</v>
+        <v>0.715033411982409</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03636044833739135</v>
+        <v>-0.1087317780465653</v>
       </c>
     </row>
     <row r="9">
@@ -705,25 +705,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5476465324092574</v>
+        <v>0.4972657781835089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.213052443456517</v>
+        <v>0.5459102691204253</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5120560674747343</v>
+        <v>0.436051676731523</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2510831159896784</v>
+        <v>0.4929171340535298</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3093131154030563</v>
+        <v>0.04740734286961638</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5221896554689776</v>
+        <v>0.3452469636641346</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.03636044833739135</v>
+        <v>-0.1087317780465653</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
